--- a/tabla_tokens.xlsx
+++ b/tabla_tokens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Lab05\node1\AnLexico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\AnLexico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D19B56-37F4-40EF-90C1-5167358A76F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D94A39-9170-40FD-96D2-5BE442989C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16350" yWindow="0" windowWidth="12555" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>CODIGO</t>
   </si>
@@ -31,15 +31,6 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SINO</t>
-  </si>
-  <si>
-    <t>FIN_SI</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -73,19 +64,229 @@
     <t>Operador</t>
   </si>
   <si>
-    <t>Delimitador</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
-    <t>INICIAR</t>
-  </si>
-  <si>
-    <t>IMPRIMIR</t>
-  </si>
-  <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Inicio del programa</t>
+  </si>
+  <si>
+    <t>Fin del programa</t>
+  </si>
+  <si>
+    <t>Condicional "si"</t>
+  </si>
+  <si>
+    <t>Fin del "si"</t>
+  </si>
+  <si>
+    <t>Condicional "sino"</t>
+  </si>
+  <si>
+    <t>Imprimir por consola</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si </t>
+  </si>
+  <si>
+    <t>endsi</t>
+  </si>
+  <si>
+    <t>sino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END </t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Bucle "para"</t>
+  </si>
+  <si>
+    <t>endfor</t>
+  </si>
+  <si>
+    <t>Fin del "para"</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>Definicion de funcion</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>endfunc</t>
+  </si>
+  <si>
+    <t>Fun de la funcion</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>Declaracion de variable</t>
+  </si>
+  <si>
+    <t>Booleano verdadero</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Booleano falso</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Valor nulo</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Resta</t>
+  </si>
+  <si>
+    <t>Multiplicacion</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Mayor que</t>
+  </si>
+  <si>
+    <t>Menor que</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Mayor o igual que</t>
+  </si>
+  <si>
+    <t>Menor o igual que</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Distinto</t>
+  </si>
+  <si>
+    <t>Y lógico</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>O lógico</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NO lógico</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Delimitadores</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Paréntesis izq.</t>
+  </si>
+  <si>
+    <t>Paréntesis der.</t>
+  </si>
+  <si>
+    <t>Llave izq.</t>
+  </si>
+  <si>
+    <t>Llave der.</t>
+  </si>
+  <si>
+    <t>Punto y coma</t>
+  </si>
+  <si>
+    <t>Coma</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Tipos de datos</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Booleano</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Comentario de una linea</t>
   </si>
 </sst>
 </file>
@@ -129,13 +330,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,206 +654,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>112</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>113</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>114</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>200</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>201</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>202</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>203</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>204</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>205</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>200</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>201</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>206</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>207</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>208</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>209</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>210</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>211</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>212</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>213</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>202</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>301</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>203</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>302</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>204</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>205</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>300</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>303</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>301</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>304</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>302</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>303</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>304</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>305</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>400</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>401</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>402</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>403</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>500</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
